--- a/Code/Results/Cases/Case_3_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.547876416774784</v>
+        <v>1.317308670475938</v>
       </c>
       <c r="C2">
-        <v>1.142330526040269</v>
+        <v>0.3856787182343169</v>
       </c>
       <c r="D2">
-        <v>0.2892201096208424</v>
+        <v>0.2869411618068085</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.088598762275865</v>
+        <v>1.41812552750784</v>
       </c>
       <c r="G2">
-        <v>0.6723071880956724</v>
+        <v>0.7526355808948892</v>
       </c>
       <c r="H2">
-        <v>0.4270335579551272</v>
+        <v>0.8142458949535722</v>
       </c>
       <c r="I2">
-        <v>0.2354521571842021</v>
+        <v>0.5428215978979907</v>
       </c>
       <c r="J2">
-        <v>0.4446670973373017</v>
+        <v>0.3487309208576619</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.078461813796707</v>
+        <v>1.176388625456809</v>
       </c>
       <c r="C3">
-        <v>0.9906407269726287</v>
+        <v>0.3405951396038631</v>
       </c>
       <c r="D3">
-        <v>0.2558272546166052</v>
+        <v>0.2786549291283222</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9982362766680382</v>
+        <v>1.41306692097649</v>
       </c>
       <c r="G3">
-        <v>0.612359277107501</v>
+        <v>0.749790072561467</v>
       </c>
       <c r="H3">
-        <v>0.4094184031129231</v>
+        <v>0.8197619046344897</v>
       </c>
       <c r="I3">
-        <v>0.2387601265010133</v>
+        <v>0.5526300047420065</v>
       </c>
       <c r="J3">
-        <v>0.3912704884064055</v>
+        <v>0.3373669850378178</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.791626612994094</v>
+        <v>1.089869530970589</v>
       </c>
       <c r="C4">
-        <v>0.8980521672099258</v>
+        <v>0.3129009597249137</v>
       </c>
       <c r="D4">
-        <v>0.2355347049137038</v>
+        <v>0.2736526380471958</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9461564657513577</v>
+        <v>1.4111786068149</v>
       </c>
       <c r="G4">
-        <v>0.5783104393254774</v>
+        <v>0.7488929435580474</v>
       </c>
       <c r="H4">
-        <v>0.4001351175680554</v>
+        <v>0.8237784926231626</v>
       </c>
       <c r="I4">
-        <v>0.2422948569946399</v>
+        <v>0.559213172032063</v>
       </c>
       <c r="J4">
-        <v>0.3592147340448975</v>
+        <v>0.3306071877485977</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.675011123943648</v>
+        <v>1.054615097239548</v>
       </c>
       <c r="C5">
-        <v>0.8604309915660338</v>
+        <v>0.3016123578272811</v>
       </c>
       <c r="D5">
-        <v>0.2273118496230211</v>
+        <v>0.2716357505789659</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9257190756433431</v>
+        <v>1.410714054655571</v>
       </c>
       <c r="G5">
-        <v>0.5650700764339689</v>
+        <v>0.7487397978817967</v>
       </c>
       <c r="H5">
-        <v>0.3967103021880121</v>
+        <v>0.825573166420952</v>
       </c>
       <c r="I5">
-        <v>0.2440879574986852</v>
+        <v>0.5620362697893491</v>
       </c>
       <c r="J5">
-        <v>0.3463153916472237</v>
+        <v>0.3279070264907631</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.655661523934498</v>
+        <v>1.048761330440755</v>
       </c>
       <c r="C6">
-        <v>0.8541898342137415</v>
+        <v>0.2997377188143844</v>
       </c>
       <c r="D6">
-        <v>0.225949080552013</v>
+        <v>0.271302154433954</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9223709507846678</v>
+        <v>1.410655298007413</v>
       </c>
       <c r="G6">
-        <v>0.5629082179092819</v>
+        <v>0.7487271609718391</v>
       </c>
       <c r="H6">
-        <v>0.3961624910508021</v>
+        <v>0.8258806925484095</v>
       </c>
       <c r="I6">
-        <v>0.2444062907840028</v>
+        <v>0.562513505331502</v>
       </c>
       <c r="J6">
-        <v>0.3441827947295337</v>
+        <v>0.3274619523644589</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.790052890599327</v>
+        <v>1.089394064402256</v>
       </c>
       <c r="C7">
-        <v>0.8975443882527827</v>
+        <v>0.312748729571382</v>
       </c>
       <c r="D7">
-        <v>0.2354236284481317</v>
+        <v>0.2736253500724786</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.945877748396569</v>
+        <v>1.411171108626306</v>
       </c>
       <c r="G7">
-        <v>0.5781293798311538</v>
+        <v>0.7488900197462556</v>
       </c>
       <c r="H7">
-        <v>0.4000875134610027</v>
+        <v>0.8238020575964384</v>
       </c>
       <c r="I7">
-        <v>0.2423176437479988</v>
+        <v>0.5592506776348429</v>
       </c>
       <c r="J7">
-        <v>0.35904013168755</v>
+        <v>0.3305705520199922</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.385686140905364</v>
+        <v>1.268718776771721</v>
       </c>
       <c r="C8">
-        <v>1.089895718359969</v>
+        <v>0.3701366290666215</v>
       </c>
       <c r="D8">
-        <v>0.2776584316105186</v>
+        <v>0.2840663756371242</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.056691584983341</v>
+        <v>1.416127830767266</v>
       </c>
       <c r="G8">
-        <v>0.6510275195894621</v>
+        <v>0.7514772386483912</v>
       </c>
       <c r="H8">
-        <v>0.4206248116037017</v>
+        <v>0.8160168288635816</v>
       </c>
       <c r="I8">
-        <v>0.2362647944887186</v>
+        <v>0.5460867860007106</v>
       </c>
       <c r="J8">
-        <v>0.4260919569195067</v>
+        <v>0.344767305971331</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.568572677549128</v>
+        <v>1.620391380039734</v>
       </c>
       <c r="C9">
-        <v>1.4728993912737</v>
+        <v>0.4825713072108329</v>
       </c>
       <c r="D9">
-        <v>0.3624771911158717</v>
+        <v>0.3052169180657671</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.304455235622697</v>
+        <v>1.435568939548858</v>
       </c>
       <c r="G9">
-        <v>0.8187802844322078</v>
+        <v>0.763355704855968</v>
       </c>
       <c r="H9">
-        <v>0.4743935910963302</v>
+        <v>0.8057685201907958</v>
       </c>
       <c r="I9">
-        <v>0.2375715261154774</v>
+        <v>0.5247489195863793</v>
       </c>
       <c r="J9">
-        <v>0.5643603480437775</v>
+        <v>0.3743469224611857</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.452679325393888</v>
+        <v>1.878759560914204</v>
       </c>
       <c r="C10">
-        <v>1.760078077888295</v>
+        <v>0.5651205014091829</v>
       </c>
       <c r="D10">
-        <v>0.4265134036354254</v>
+        <v>0.3211666670730153</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.510361037665916</v>
+        <v>1.455864617838074</v>
       </c>
       <c r="G10">
-        <v>0.9616028688323013</v>
+        <v>0.776317116068725</v>
       </c>
       <c r="H10">
-        <v>0.5241732868167475</v>
+        <v>0.8013296025412444</v>
       </c>
       <c r="I10">
-        <v>0.2484681964917073</v>
+        <v>0.5118380751502194</v>
       </c>
       <c r="J10">
-        <v>0.6716063551612166</v>
+        <v>0.3971597152056177</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.859659991464866</v>
+        <v>1.996295612751624</v>
       </c>
       <c r="C11">
-        <v>1.89254975757666</v>
+        <v>0.6026640325525818</v>
       </c>
       <c r="D11">
-        <v>0.4561454573839399</v>
+        <v>0.3285115954543585</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.610553171395296</v>
+        <v>1.466422050950555</v>
       </c>
       <c r="G11">
-        <v>1.031949108553221</v>
+        <v>0.7831516919508914</v>
       </c>
       <c r="H11">
-        <v>0.5495668490308105</v>
+        <v>0.7999880981716814</v>
       </c>
       <c r="I11">
-        <v>0.2560615216966724</v>
+        <v>0.5065732239845531</v>
       </c>
       <c r="J11">
-        <v>0.7220108745768385</v>
+        <v>0.407777023168677</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.014603657765065</v>
+        <v>2.040803257151708</v>
       </c>
       <c r="C12">
-        <v>1.943030429535327</v>
+        <v>0.6168795592290621</v>
       </c>
       <c r="D12">
-        <v>0.4674503386828803</v>
+        <v>0.331305721010807</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.649557739315341</v>
+        <v>1.470611848311563</v>
       </c>
       <c r="G12">
-        <v>1.059466451954904</v>
+        <v>0.7858761784986115</v>
       </c>
       <c r="H12">
-        <v>0.5596268074413899</v>
+        <v>0.7995781154668862</v>
       </c>
       <c r="I12">
-        <v>0.2593613053019652</v>
+        <v>0.5046677094756902</v>
       </c>
       <c r="J12">
-        <v>0.74136689840293</v>
+        <v>0.4118322980615261</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.981194512172124</v>
+        <v>2.031217788941547</v>
       </c>
       <c r="C13">
-        <v>1.932143525003539</v>
+        <v>0.6138180557810529</v>
       </c>
       <c r="D13">
-        <v>0.4650116990873414</v>
+        <v>0.3307033898225313</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.641107928041336</v>
+        <v>1.469700941837004</v>
       </c>
       <c r="G13">
-        <v>1.053499201618152</v>
+        <v>0.7852833229261478</v>
       </c>
       <c r="H13">
-        <v>0.5574396330781326</v>
+        <v>0.7996620444742888</v>
       </c>
       <c r="I13">
-        <v>0.2586309883830324</v>
+        <v>0.5050741637144398</v>
       </c>
       <c r="J13">
-        <v>0.7371856475821232</v>
+        <v>0.4109573730746092</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.872389833020293</v>
+        <v>1.999957304068573</v>
       </c>
       <c r="C14">
-        <v>1.896696163386252</v>
+        <v>0.6038335813522622</v>
       </c>
       <c r="D14">
-        <v>0.4570737640135292</v>
+        <v>0.3287412145633652</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.613740004728697</v>
+        <v>1.466762893458409</v>
       </c>
       <c r="G14">
-        <v>1.034194716153991</v>
+        <v>0.783373095525647</v>
       </c>
       <c r="H14">
-        <v>0.5503852908091602</v>
+        <v>0.7999524010926251</v>
       </c>
       <c r="I14">
-        <v>0.2563242145280853</v>
+        <v>0.5064146851368463</v>
       </c>
       <c r="J14">
-        <v>0.7235976933927901</v>
+        <v>0.408109955464937</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.805856178336114</v>
+        <v>1.980809228862768</v>
       </c>
       <c r="C15">
-        <v>1.875026530587093</v>
+        <v>0.5977176161180182</v>
       </c>
       <c r="D15">
-        <v>0.4522228422549119</v>
+        <v>0.3275409849842958</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.597118902540174</v>
+        <v>1.464988290707254</v>
       </c>
       <c r="G15">
-        <v>1.022487946863322</v>
+        <v>0.7822208298907753</v>
       </c>
       <c r="H15">
-        <v>0.5461236624517909</v>
+        <v>0.800143033893761</v>
       </c>
       <c r="I15">
-        <v>0.2549679434050418</v>
+        <v>0.5072472960983987</v>
       </c>
       <c r="J15">
-        <v>0.7153108514804813</v>
+        <v>0.406370360978201</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.426190241098254</v>
+        <v>1.871078266188192</v>
       </c>
       <c r="C16">
-        <v>1.751462010018713</v>
+        <v>0.5626667572996098</v>
       </c>
       <c r="D16">
-        <v>0.4245879465531459</v>
+        <v>0.3206884487804302</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.503954964419719</v>
+        <v>1.455201444715442</v>
       </c>
       <c r="G16">
-        <v>0.9571225149086615</v>
+        <v>0.7758894662005531</v>
       </c>
       <c r="H16">
-        <v>0.5225731056606691</v>
+        <v>0.8014309587960895</v>
       </c>
       <c r="I16">
-        <v>0.2480287586708698</v>
+        <v>0.5121944461287029</v>
       </c>
       <c r="J16">
-        <v>0.6683478618771233</v>
+        <v>0.39647069450983</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.194600133844858</v>
+        <v>1.803761831422321</v>
       </c>
       <c r="C17">
-        <v>1.676164367860565</v>
+        <v>0.5411618862318051</v>
       </c>
       <c r="D17">
-        <v>0.4077712572376129</v>
+        <v>0.3165074545952393</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.448558084727807</v>
+        <v>1.449537858359562</v>
       </c>
       <c r="G17">
-        <v>0.918471291259749</v>
+        <v>0.7722467442715129</v>
       </c>
       <c r="H17">
-        <v>0.5088625320765914</v>
+        <v>0.8023950466957217</v>
       </c>
       <c r="I17">
-        <v>0.2444776641963813</v>
+        <v>0.5153856669865426</v>
       </c>
       <c r="J17">
-        <v>0.6399764607433696</v>
+        <v>0.3904591410582867</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.061837849831704</v>
+        <v>1.765043553848784</v>
       </c>
       <c r="C18">
-        <v>1.63302413758089</v>
+        <v>0.5287920614629229</v>
       </c>
       <c r="D18">
-        <v>0.3981451849684845</v>
+        <v>0.3141110680948032</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.41730106501889</v>
+        <v>1.446404927118721</v>
       </c>
       <c r="G18">
-        <v>0.8967391023448954</v>
+        <v>0.7702397836610402</v>
       </c>
       <c r="H18">
-        <v>0.5012320519857809</v>
+        <v>0.8030133274124012</v>
       </c>
       <c r="I18">
-        <v>0.2426803259169397</v>
+        <v>0.5172783929020568</v>
       </c>
       <c r="J18">
-        <v>0.6238078462120455</v>
+        <v>0.3870239955983408</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.01695878131062</v>
+        <v>1.75193430699693</v>
       </c>
       <c r="C19">
-        <v>1.618445103791828</v>
+        <v>0.5246037207302834</v>
       </c>
       <c r="D19">
-        <v>0.394893602676234</v>
+        <v>0.31330113989344</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.406818418449276</v>
+        <v>1.445365529876412</v>
       </c>
       <c r="G19">
-        <v>0.8894636253233017</v>
+        <v>0.7695753720495588</v>
       </c>
       <c r="H19">
-        <v>0.4986909851933063</v>
+        <v>0.8032336012023507</v>
       </c>
       <c r="I19">
-        <v>0.2421125865689397</v>
+        <v>0.5179290440029654</v>
       </c>
       <c r="J19">
-        <v>0.6183581323712986</v>
+        <v>0.3858647776923476</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.219206568830657</v>
+        <v>1.810927752488681</v>
       </c>
       <c r="C20">
-        <v>1.684162077083727</v>
+        <v>0.5434511996643323</v>
       </c>
       <c r="D20">
-        <v>0.4095565351128414</v>
+        <v>0.3169516586792724</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.454391613290014</v>
+        <v>1.450127849519305</v>
       </c>
       <c r="G20">
-        <v>0.9225334101410425</v>
+        <v>0.7726253756418657</v>
       </c>
       <c r="H20">
-        <v>0.5102952694537777</v>
+        <v>0.802285814713926</v>
       </c>
       <c r="I20">
-        <v>0.2448299997039101</v>
+        <v>0.5150400290480839</v>
       </c>
       <c r="J20">
-        <v>0.6429808848415917</v>
+        <v>0.3910967463298931</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.904324719242823</v>
+        <v>2.009139294411739</v>
       </c>
       <c r="C21">
-        <v>1.907098868946889</v>
+        <v>0.6067663026418586</v>
       </c>
       <c r="D21">
-        <v>0.4594029517277249</v>
+        <v>0.3293172073207131</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.621748676537536</v>
+        <v>1.467620649316075</v>
       </c>
       <c r="G21">
-        <v>1.039840158856606</v>
+        <v>0.7839304627349009</v>
       </c>
       <c r="H21">
-        <v>0.5524448565090836</v>
+        <v>0.7998644517791575</v>
       </c>
       <c r="I21">
-        <v>0.2569898666937576</v>
+        <v>0.506018543075875</v>
       </c>
       <c r="J21">
-        <v>0.7275811956926646</v>
+        <v>0.408945366294688</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.356997100153251</v>
+        <v>2.138677365033004</v>
       </c>
       <c r="C22">
-        <v>2.054675158541272</v>
+        <v>0.6481381880795425</v>
       </c>
       <c r="D22">
-        <v>0.4924757448575008</v>
+        <v>0.3374731505768409</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.737397128601742</v>
+        <v>1.48017256358969</v>
       </c>
       <c r="G22">
-        <v>1.121687153035765</v>
+        <v>0.7921145976313824</v>
       </c>
       <c r="H22">
-        <v>0.5826066752217116</v>
+        <v>0.7988535210265582</v>
       </c>
       <c r="I22">
-        <v>0.2674353838666761</v>
+        <v>0.5006367264603497</v>
       </c>
       <c r="J22">
-        <v>0.7844599617073555</v>
+        <v>0.4208130363119267</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.114897976301336</v>
+        <v>2.069541252210399</v>
       </c>
       <c r="C23">
-        <v>1.975720235786184</v>
+        <v>0.6260580370827142</v>
       </c>
       <c r="D23">
-        <v>0.4747746198932248</v>
+        <v>0.3331133941530595</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.675054129541834</v>
+        <v>1.47337047887612</v>
       </c>
       <c r="G23">
-        <v>1.077491654410835</v>
+        <v>0.7876732939475488</v>
       </c>
       <c r="H23">
-        <v>0.5662518883382859</v>
+        <v>0.7993405920069989</v>
       </c>
       <c r="I23">
-        <v>0.2616154780608042</v>
+        <v>0.5034618213455886</v>
       </c>
       <c r="J23">
-        <v>0.7539442841988802</v>
+        <v>0.4144604129516409</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.208080820197154</v>
+        <v>1.807688092948638</v>
       </c>
       <c r="C24">
-        <v>1.680545851361046</v>
+        <v>0.5424162209509973</v>
       </c>
       <c r="D24">
-        <v>0.4087492808271804</v>
+        <v>0.3167508111981476</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.451752442319986</v>
+        <v>1.449860731054699</v>
       </c>
       <c r="G24">
-        <v>0.9206954111755579</v>
+        <v>0.7724539246146662</v>
       </c>
       <c r="H24">
-        <v>0.509646747850951</v>
+        <v>0.8023349991356667</v>
       </c>
       <c r="I24">
-        <v>0.2446699514447488</v>
+        <v>0.5151961111891339</v>
       </c>
       <c r="J24">
-        <v>0.641622143595697</v>
+        <v>0.3908084196709467</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.246398923873187</v>
+        <v>1.525254590027316</v>
       </c>
       <c r="C25">
-        <v>1.368447410628391</v>
+        <v>0.4521651661479495</v>
       </c>
       <c r="D25">
-        <v>0.3392688604269267</v>
+        <v>0.299422959233226</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.233651831594585</v>
+        <v>1.429260027421961</v>
       </c>
       <c r="G25">
-        <v>0.7703103473287882</v>
+        <v>0.759404892005449</v>
       </c>
       <c r="H25">
-        <v>0.45820375301561</v>
+        <v>0.8080004893578092</v>
       </c>
       <c r="I25">
-        <v>0.2356221139511412</v>
+        <v>0.5300383116024712</v>
       </c>
       <c r="J25">
-        <v>0.526081001412237</v>
+        <v>0.3661565370953213</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.317308670475938</v>
+        <v>3.547876416774614</v>
       </c>
       <c r="C2">
-        <v>0.3856787182343169</v>
+        <v>1.142330526039984</v>
       </c>
       <c r="D2">
-        <v>0.2869411618068085</v>
+        <v>0.2892201096209703</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.41812552750784</v>
+        <v>1.088598762275865</v>
       </c>
       <c r="G2">
-        <v>0.7526355808948892</v>
+        <v>0.6723071880956439</v>
       </c>
       <c r="H2">
-        <v>0.8142458949535722</v>
+        <v>0.4270335579551272</v>
       </c>
       <c r="I2">
-        <v>0.5428215978979907</v>
+        <v>0.2354521571841985</v>
       </c>
       <c r="J2">
-        <v>0.3487309208576619</v>
+        <v>0.4446670973373301</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.176388625456809</v>
+        <v>3.078461813796764</v>
       </c>
       <c r="C3">
-        <v>0.3405951396038631</v>
+        <v>0.9906407269731119</v>
       </c>
       <c r="D3">
-        <v>0.2786549291283222</v>
+        <v>0.255827254616662</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.41306692097649</v>
+        <v>0.9982362766680239</v>
       </c>
       <c r="G3">
-        <v>0.749790072561467</v>
+        <v>0.6123592771074868</v>
       </c>
       <c r="H3">
-        <v>0.8197619046344897</v>
+        <v>0.4094184031129373</v>
       </c>
       <c r="I3">
-        <v>0.5526300047420065</v>
+        <v>0.2387601265010098</v>
       </c>
       <c r="J3">
-        <v>0.3373669850378178</v>
+        <v>0.3912704884063629</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.089869530970589</v>
+        <v>2.791626612994094</v>
       </c>
       <c r="C4">
-        <v>0.3129009597249137</v>
+        <v>0.89805216721021</v>
       </c>
       <c r="D4">
-        <v>0.2736526380471958</v>
+        <v>0.2355347049135048</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.4111786068149</v>
+        <v>0.9461564657513719</v>
       </c>
       <c r="G4">
-        <v>0.7488929435580474</v>
+        <v>0.5783104393255059</v>
       </c>
       <c r="H4">
-        <v>0.8237784926231626</v>
+        <v>0.4001351175680838</v>
       </c>
       <c r="I4">
-        <v>0.559213172032063</v>
+        <v>0.2422948569946293</v>
       </c>
       <c r="J4">
-        <v>0.3306071877485977</v>
+        <v>0.3592147340448975</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.054615097239548</v>
+        <v>2.675011123943591</v>
       </c>
       <c r="C5">
-        <v>0.3016123578272811</v>
+        <v>0.8604309915657211</v>
       </c>
       <c r="D5">
-        <v>0.2716357505789659</v>
+        <v>0.2273118496229216</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.410714054655571</v>
+        <v>0.9257190756433573</v>
       </c>
       <c r="G5">
-        <v>0.7487397978817967</v>
+        <v>0.565070076433912</v>
       </c>
       <c r="H5">
-        <v>0.825573166420952</v>
+        <v>0.3967103021879979</v>
       </c>
       <c r="I5">
-        <v>0.5620362697893491</v>
+        <v>0.2440879574986887</v>
       </c>
       <c r="J5">
-        <v>0.3279070264907631</v>
+        <v>0.3463153916473232</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.048761330440755</v>
+        <v>2.655661523934612</v>
       </c>
       <c r="C6">
-        <v>0.2997377188143844</v>
+        <v>0.8541898342142531</v>
       </c>
       <c r="D6">
-        <v>0.271302154433954</v>
+        <v>0.2259490805522404</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.410655298007413</v>
+        <v>0.922370950784682</v>
       </c>
       <c r="G6">
-        <v>0.7487271609718391</v>
+        <v>0.5629082179092393</v>
       </c>
       <c r="H6">
-        <v>0.8258806925484095</v>
+        <v>0.3961624910508164</v>
       </c>
       <c r="I6">
-        <v>0.562513505331502</v>
+        <v>0.2444062907840063</v>
       </c>
       <c r="J6">
-        <v>0.3274619523644589</v>
+        <v>0.3441827947295053</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.089394064402256</v>
+        <v>2.790052890599327</v>
       </c>
       <c r="C7">
-        <v>0.312748729571382</v>
+        <v>0.8975443882531238</v>
       </c>
       <c r="D7">
-        <v>0.2736253500724786</v>
+        <v>0.2354236284482312</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.411171108626306</v>
+        <v>0.9458777483965548</v>
       </c>
       <c r="G7">
-        <v>0.7488900197462556</v>
+        <v>0.5781293798311964</v>
       </c>
       <c r="H7">
-        <v>0.8238020575964384</v>
+        <v>0.4000875134610169</v>
       </c>
       <c r="I7">
-        <v>0.5592506776348429</v>
+        <v>0.2423176437479917</v>
       </c>
       <c r="J7">
-        <v>0.3305705520199922</v>
+        <v>0.3590401316874932</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.268718776771721</v>
+        <v>3.38568614090525</v>
       </c>
       <c r="C8">
-        <v>0.3701366290666215</v>
+        <v>1.089895718359969</v>
       </c>
       <c r="D8">
-        <v>0.2840663756371242</v>
+        <v>0.2776584316105044</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.416127830767266</v>
+        <v>1.056691584983326</v>
       </c>
       <c r="G8">
-        <v>0.7514772386483912</v>
+        <v>0.651027519589519</v>
       </c>
       <c r="H8">
-        <v>0.8160168288635816</v>
+        <v>0.420624811603588</v>
       </c>
       <c r="I8">
-        <v>0.5460867860007106</v>
+        <v>0.2362647944887151</v>
       </c>
       <c r="J8">
-        <v>0.344767305971331</v>
+        <v>0.4260919569195352</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.620391380039734</v>
+        <v>4.568572677548957</v>
       </c>
       <c r="C9">
-        <v>0.4825713072108329</v>
+        <v>1.472899391273415</v>
       </c>
       <c r="D9">
-        <v>0.3052169180657671</v>
+        <v>0.3624771911159286</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.435568939548858</v>
+        <v>1.304455235622697</v>
       </c>
       <c r="G9">
-        <v>0.763355704855968</v>
+        <v>0.8187802844321226</v>
       </c>
       <c r="H9">
-        <v>0.8057685201907958</v>
+        <v>0.4743935910964439</v>
       </c>
       <c r="I9">
-        <v>0.5247489195863793</v>
+        <v>0.2375715261154774</v>
       </c>
       <c r="J9">
-        <v>0.3743469224611857</v>
+        <v>0.5643603480437918</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.878759560914204</v>
+        <v>5.452679325393717</v>
       </c>
       <c r="C10">
-        <v>0.5651205014091829</v>
+        <v>1.760078077888181</v>
       </c>
       <c r="D10">
-        <v>0.3211666670730153</v>
+        <v>0.4265134036354823</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.455864617838074</v>
+        <v>1.510361037665945</v>
       </c>
       <c r="G10">
-        <v>0.776317116068725</v>
+        <v>0.9616028688322871</v>
       </c>
       <c r="H10">
-        <v>0.8013296025412444</v>
+        <v>0.5241732868168754</v>
       </c>
       <c r="I10">
-        <v>0.5118380751502194</v>
+        <v>0.2484681964917073</v>
       </c>
       <c r="J10">
-        <v>0.3971597152056177</v>
+        <v>0.6716063551612024</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.996295612751624</v>
+        <v>5.859659991465151</v>
       </c>
       <c r="C11">
-        <v>0.6026640325525818</v>
+        <v>1.892549757576717</v>
       </c>
       <c r="D11">
-        <v>0.3285115954543585</v>
+        <v>0.4561454573840251</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.466422050950555</v>
+        <v>1.610553171395324</v>
       </c>
       <c r="G11">
-        <v>0.7831516919508914</v>
+        <v>1.031949108553192</v>
       </c>
       <c r="H11">
-        <v>0.7999880981716814</v>
+        <v>0.5495668490306969</v>
       </c>
       <c r="I11">
-        <v>0.5065732239845531</v>
+        <v>0.2560615216966582</v>
       </c>
       <c r="J11">
-        <v>0.407777023168677</v>
+        <v>0.7220108745768385</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.040803257151708</v>
+        <v>6.014603657764837</v>
       </c>
       <c r="C12">
-        <v>0.6168795592290621</v>
+        <v>1.943030429535156</v>
       </c>
       <c r="D12">
-        <v>0.331305721010807</v>
+        <v>0.4674503386827382</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.470611848311563</v>
+        <v>1.649557739315327</v>
       </c>
       <c r="G12">
-        <v>0.7858761784986115</v>
+        <v>1.059466451954961</v>
       </c>
       <c r="H12">
-        <v>0.7995781154668862</v>
+        <v>0.5596268074413899</v>
       </c>
       <c r="I12">
-        <v>0.5046677094756902</v>
+        <v>0.259361305301951</v>
       </c>
       <c r="J12">
-        <v>0.4118322980615261</v>
+        <v>0.7413668984029584</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.031217788941547</v>
+        <v>5.981194512172181</v>
       </c>
       <c r="C13">
-        <v>0.6138180557810529</v>
+        <v>1.932143525003539</v>
       </c>
       <c r="D13">
-        <v>0.3307033898225313</v>
+        <v>0.4650116990874551</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.469700941837004</v>
+        <v>1.641107928041365</v>
       </c>
       <c r="G13">
-        <v>0.7852833229261478</v>
+        <v>1.053499201618237</v>
       </c>
       <c r="H13">
-        <v>0.7996620444742888</v>
+        <v>0.5574396330782463</v>
       </c>
       <c r="I13">
-        <v>0.5050741637144398</v>
+        <v>0.2586309883830396</v>
       </c>
       <c r="J13">
-        <v>0.4109573730746092</v>
+        <v>0.737185647582038</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.999957304068573</v>
+        <v>5.872389833020236</v>
       </c>
       <c r="C14">
-        <v>0.6038335813522622</v>
+        <v>1.896696163386707</v>
       </c>
       <c r="D14">
-        <v>0.3287412145633652</v>
+        <v>0.4570737640135576</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.466762893458409</v>
+        <v>1.613740004728712</v>
       </c>
       <c r="G14">
-        <v>0.783373095525647</v>
+        <v>1.03419471615392</v>
       </c>
       <c r="H14">
-        <v>0.7999524010926251</v>
+        <v>0.5503852908090465</v>
       </c>
       <c r="I14">
-        <v>0.5064146851368463</v>
+        <v>0.2563242145280995</v>
       </c>
       <c r="J14">
-        <v>0.408109955464937</v>
+        <v>0.7235976933928185</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.980809228862768</v>
+        <v>5.805856178335944</v>
       </c>
       <c r="C15">
-        <v>0.5977176161180182</v>
+        <v>1.875026530586695</v>
       </c>
       <c r="D15">
-        <v>0.3275409849842958</v>
+        <v>0.4522228422547698</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.464988290707254</v>
+        <v>1.597118902540132</v>
       </c>
       <c r="G15">
-        <v>0.7822208298907753</v>
+        <v>1.022487946863365</v>
       </c>
       <c r="H15">
-        <v>0.800143033893761</v>
+        <v>0.546123662451663</v>
       </c>
       <c r="I15">
-        <v>0.5072472960983987</v>
+        <v>0.254967943405056</v>
       </c>
       <c r="J15">
-        <v>0.406370360978201</v>
+        <v>0.7153108514805098</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.871078266188192</v>
+        <v>5.426190241098254</v>
       </c>
       <c r="C16">
-        <v>0.5626667572996098</v>
+        <v>1.751462010018543</v>
       </c>
       <c r="D16">
-        <v>0.3206884487804302</v>
+        <v>0.4245879465530891</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.455201444715442</v>
+        <v>1.503954964419719</v>
       </c>
       <c r="G16">
-        <v>0.7758894662005531</v>
+        <v>0.957122514908761</v>
       </c>
       <c r="H16">
-        <v>0.8014309587960895</v>
+        <v>0.5225731056606691</v>
       </c>
       <c r="I16">
-        <v>0.5121944461287029</v>
+        <v>0.248028758670884</v>
       </c>
       <c r="J16">
-        <v>0.39647069450983</v>
+        <v>0.6683478618770806</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.803761831422321</v>
+        <v>5.194600133844915</v>
       </c>
       <c r="C17">
-        <v>0.5411618862318051</v>
+        <v>1.676164367860338</v>
       </c>
       <c r="D17">
-        <v>0.3165074545952393</v>
+        <v>0.4077712572374992</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.449537858359562</v>
+        <v>1.448558084727821</v>
       </c>
       <c r="G17">
-        <v>0.7722467442715129</v>
+        <v>0.9184712912596922</v>
       </c>
       <c r="H17">
-        <v>0.8023950466957217</v>
+        <v>0.5088625320764777</v>
       </c>
       <c r="I17">
-        <v>0.5153856669865426</v>
+        <v>0.2444776641963813</v>
       </c>
       <c r="J17">
-        <v>0.3904591410582867</v>
+        <v>0.6399764607433553</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.765043553848784</v>
+        <v>5.061837849831534</v>
       </c>
       <c r="C18">
-        <v>0.5287920614629229</v>
+        <v>1.633024137580946</v>
       </c>
       <c r="D18">
-        <v>0.3141110680948032</v>
+        <v>0.3981451849684561</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.446404927118721</v>
+        <v>1.417301065018918</v>
       </c>
       <c r="G18">
-        <v>0.7702397836610402</v>
+        <v>0.8967391023448386</v>
       </c>
       <c r="H18">
-        <v>0.8030133274124012</v>
+        <v>0.5012320519857809</v>
       </c>
       <c r="I18">
-        <v>0.5172783929020568</v>
+        <v>0.2426803259169503</v>
       </c>
       <c r="J18">
-        <v>0.3870239955983408</v>
+        <v>0.6238078462120171</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.75193430699693</v>
+        <v>5.016958781310848</v>
       </c>
       <c r="C19">
-        <v>0.5246037207302834</v>
+        <v>1.618445103791942</v>
       </c>
       <c r="D19">
-        <v>0.31330113989344</v>
+        <v>0.3948936026761771</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.445365529876412</v>
+        <v>1.406818418449305</v>
       </c>
       <c r="G19">
-        <v>0.7695753720495588</v>
+        <v>0.8894636253233159</v>
       </c>
       <c r="H19">
-        <v>0.8032336012023507</v>
+        <v>0.4986909851933063</v>
       </c>
       <c r="I19">
-        <v>0.5179290440029654</v>
+        <v>0.242112586568954</v>
       </c>
       <c r="J19">
-        <v>0.3858647776923476</v>
+        <v>0.6183581323712417</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.810927752488681</v>
+        <v>5.219206568830941</v>
       </c>
       <c r="C20">
-        <v>0.5434511996643323</v>
+        <v>1.684162077083897</v>
       </c>
       <c r="D20">
-        <v>0.3169516586792724</v>
+        <v>0.409556535112813</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.450127849519305</v>
+        <v>1.454391613290042</v>
       </c>
       <c r="G20">
-        <v>0.7726253756418657</v>
+        <v>0.9225334101409715</v>
       </c>
       <c r="H20">
-        <v>0.802285814713926</v>
+        <v>0.5102952694537635</v>
       </c>
       <c r="I20">
-        <v>0.5150400290480839</v>
+        <v>0.2448299997039101</v>
       </c>
       <c r="J20">
-        <v>0.3910967463298931</v>
+        <v>0.6429808848417053</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.009139294411739</v>
+        <v>5.904324719242595</v>
       </c>
       <c r="C21">
-        <v>0.6067663026418586</v>
+        <v>1.907098868946491</v>
       </c>
       <c r="D21">
-        <v>0.3293172073207131</v>
+        <v>0.4594029517276965</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.467620649316075</v>
+        <v>1.621748676537521</v>
       </c>
       <c r="G21">
-        <v>0.7839304627349009</v>
+        <v>1.039840158856663</v>
       </c>
       <c r="H21">
-        <v>0.7998644517791575</v>
+        <v>0.5524448565089699</v>
       </c>
       <c r="I21">
-        <v>0.506018543075875</v>
+        <v>0.2569898666937789</v>
       </c>
       <c r="J21">
-        <v>0.408945366294688</v>
+        <v>0.727581195692764</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.138677365033004</v>
+        <v>6.356997100153251</v>
       </c>
       <c r="C22">
-        <v>0.6481381880795425</v>
+        <v>2.054675158541727</v>
       </c>
       <c r="D22">
-        <v>0.3374731505768409</v>
+        <v>0.4924757448575008</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.48017256358969</v>
+        <v>1.737397128601728</v>
       </c>
       <c r="G22">
-        <v>0.7921145976313824</v>
+        <v>1.121687153035822</v>
       </c>
       <c r="H22">
-        <v>0.7988535210265582</v>
+        <v>0.5826066752217116</v>
       </c>
       <c r="I22">
-        <v>0.5006367264603497</v>
+        <v>0.2674353838666761</v>
       </c>
       <c r="J22">
-        <v>0.4208130363119267</v>
+        <v>0.7844599617072987</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.069541252210399</v>
+        <v>6.114897976301449</v>
       </c>
       <c r="C23">
-        <v>0.6260580370827142</v>
+        <v>1.975720235786014</v>
       </c>
       <c r="D23">
-        <v>0.3331133941530595</v>
+        <v>0.4747746198932816</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.47337047887612</v>
+        <v>1.675054129541834</v>
       </c>
       <c r="G23">
-        <v>0.7876732939475488</v>
+        <v>1.077491654410863</v>
       </c>
       <c r="H23">
-        <v>0.7993405920069989</v>
+        <v>0.5662518883383143</v>
       </c>
       <c r="I23">
-        <v>0.5034618213455886</v>
+        <v>0.2616154780608184</v>
       </c>
       <c r="J23">
-        <v>0.4144604129516409</v>
+        <v>0.7539442841988802</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.807688092948638</v>
+        <v>5.208080820197324</v>
       </c>
       <c r="C24">
-        <v>0.5424162209509973</v>
+        <v>1.680545851360932</v>
       </c>
       <c r="D24">
-        <v>0.3167508111981476</v>
+        <v>0.408749280827152</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.449860731054699</v>
+        <v>1.451752442319986</v>
       </c>
       <c r="G24">
-        <v>0.7724539246146662</v>
+        <v>0.9206954111755721</v>
       </c>
       <c r="H24">
-        <v>0.8023349991356667</v>
+        <v>0.5096467478510647</v>
       </c>
       <c r="I24">
-        <v>0.5151961111891339</v>
+        <v>0.2446699514447346</v>
       </c>
       <c r="J24">
-        <v>0.3908084196709467</v>
+        <v>0.6416221435956544</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.525254590027316</v>
+        <v>4.246398923873187</v>
       </c>
       <c r="C25">
-        <v>0.4521651661479495</v>
+        <v>1.368447410628505</v>
       </c>
       <c r="D25">
-        <v>0.299422959233226</v>
+        <v>0.3392688604268983</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.429260027421961</v>
+        <v>1.233651831594571</v>
       </c>
       <c r="G25">
-        <v>0.759404892005449</v>
+        <v>0.770310347328774</v>
       </c>
       <c r="H25">
-        <v>0.8080004893578092</v>
+        <v>0.45820375301561</v>
       </c>
       <c r="I25">
-        <v>0.5300383116024712</v>
+        <v>0.2356221139511554</v>
       </c>
       <c r="J25">
-        <v>0.3661565370953213</v>
+        <v>0.5260810014122086</v>
       </c>
       <c r="K25">
         <v>0</v>
